--- a/Documentatie/Experimenten/Afstanden.xlsx
+++ b/Documentatie/Experimenten/Afstanden.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="16275" windowHeight="6915"/>
@@ -11,12 +11,12 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>10cm</t>
   </si>
@@ -56,12 +56,27 @@
   <si>
     <t>60*5(beep periode)</t>
   </si>
+  <si>
+    <t>tot 20% accuraat</t>
+  </si>
+  <si>
+    <t>Fout groter dan 20%</t>
+  </si>
+  <si>
+    <t>Mislukte meting</t>
+  </si>
+  <si>
+    <t>Fout kleiner of gelijk dan 13,9</t>
+  </si>
+  <si>
+    <t>Fout groter dan 13,9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +84,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,22 +138,1207 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>30 * Beep periode</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$43:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Mislukte meting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fout groter dan 20%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tot 20% accuraat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$43:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>60 * Beep periode</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$63:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Mislukte meting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fout groter dan 20%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tot 20% accuraat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$63:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>30 * Beep periode</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$AF$2:$AF$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.471088435374149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.411848072562357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2341269841269842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1170634920634903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.978835978835976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.293367346938776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.327210884353747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.480952380952383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.692517006802721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="241752704"/>
+        <c:axId val="241867392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="241752704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Werkelijke afstand (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="241867392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="241867392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Gemiddelde fout (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="241752704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>60 * Beep periode</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$R$14:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$AF$14:$AF$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.35260770975056666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.141043083900225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.549130763416475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.626228269085411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.528911564625851</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.939342403628117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.723544973544975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.52749433106576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.781368102796677</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.526077097505668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="99996416"/>
+        <c:axId val="99997952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99996416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Werkelijke afstand (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99997952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99997952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Gemiddelde fout (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99996416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>30 * Beep periode</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$U$29:$U$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Fout kleiner of gelijk dan 13,9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fout groter dan 13,9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$V$29:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>60 * Beep periode</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$U$32:$U$33</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Fout kleiner of gelijk dan 13,9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fout groter dan 13,9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$V$32:$V$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafiek 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Grafiek 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Grafiek 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Grafiek 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Grafiek 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Grafiek 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -176,6 +1412,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -210,6 +1447,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -385,21 +1623,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -409,27 +1653,78 @@
       <c r="D2">
         <v>-25</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2">
         <v>-25</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2">
         <v>-75</v>
       </c>
+      <c r="L2">
+        <v>-25</v>
+      </c>
+      <c r="M2">
+        <v>-25</v>
+      </c>
+      <c r="N2">
+        <v>-25</v>
+      </c>
+      <c r="O2">
+        <v>-75</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <f>(L2/44100)*170.18*100</f>
+        <v>-9.6473922902494333</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:V2" si="0">(M2/44100)*170.18*100</f>
+        <v>-9.6473922902494333</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>-9.6473922902494333</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>-28.942176870748298</v>
+      </c>
+      <c r="Z2">
+        <f>ABS($R2-S2)</f>
+        <v>19.647392290249435</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AC2" si="1">ABS($R2-T2)</f>
+        <v>19.647392290249435</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="1"/>
+        <v>19.647392290249435</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="1"/>
+        <v>38.942176870748298</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(Z2:AE2)</f>
+        <v>24.471088435374149</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
         <v>-25</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3">
@@ -438,14 +1733,56 @@
       <c r="F3">
         <v>-25</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>-25</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>-25</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+      <c r="S3">
+        <f>(L3/44100)*170.18*100</f>
+        <v>-9.6473922902494333</v>
+      </c>
+      <c r="T3" s="2">
+        <f>(M3/44100)*170.18*100</f>
+        <v>19.294784580498867</v>
+      </c>
+      <c r="U3">
+        <f>(N3/44100)*170.18*100</f>
+        <v>-9.6473922902494333</v>
+      </c>
+      <c r="Z3">
+        <f>ABS($R3-S3)</f>
+        <v>29.647392290249435</v>
+      </c>
+      <c r="AA3">
+        <f>ABS($R3-T3)</f>
+        <v>0.70521541950113331</v>
+      </c>
+      <c r="AB3">
+        <f>ABS($R3-U3)</f>
+        <v>29.647392290249435</v>
+      </c>
+      <c r="AF3">
+        <f>AVERAGE(Z3:AE3)</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="1"/>
       <c r="D4">
         <v>50</v>
       </c>
@@ -458,18 +1795,71 @@
       <c r="G4">
         <v>-75</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>-50</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>-75</v>
+      </c>
+      <c r="R4">
+        <v>30</v>
+      </c>
+      <c r="S4">
+        <f>(L4/44100)*170.18*100</f>
+        <v>19.294784580498867</v>
+      </c>
+      <c r="T4">
+        <f>(M4/44100)*170.18*100</f>
+        <v>-19.294784580498867</v>
+      </c>
+      <c r="U4">
+        <f>(N4/44100)*170.18*100</f>
+        <v>19.294784580498867</v>
+      </c>
+      <c r="V4">
+        <f>(O4/44100)*170.18*100</f>
+        <v>-28.942176870748298</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z11" si="2">ABS($R4-S4)</f>
+        <v>10.705215419501133</v>
+      </c>
+      <c r="AA4">
+        <f>ABS($R4-T4)</f>
+        <v>49.29478458049887</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AA4:AD11" si="3">ABS($R4-U4)</f>
+        <v>10.705215419501133</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="3"/>
+        <v>58.942176870748298</v>
+      </c>
+      <c r="AF4">
+        <f>AVERAGE(Z4:AE4)</f>
+        <v>32.411848072562357</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="1"/>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5">
@@ -478,11 +1868,64 @@
       <c r="H5">
         <v>75</v>
       </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <v>75</v>
+      </c>
+      <c r="R5">
+        <v>40</v>
+      </c>
+      <c r="S5" s="2">
+        <f>(L5/44100)*170.18*100</f>
+        <v>38.589569160997733</v>
+      </c>
+      <c r="T5" s="2">
+        <f>(M5/44100)*170.18*100</f>
+        <v>38.589569160997733</v>
+      </c>
+      <c r="U5">
+        <f>(N5/44100)*170.18*100</f>
+        <v>28.942176870748298</v>
+      </c>
+      <c r="V5">
+        <f>(O5/44100)*170.18*100</f>
+        <v>28.942176870748298</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="2"/>
+        <v>1.4104308390022666</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="3"/>
+        <v>1.4104308390022666</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="3"/>
+        <v>11.057823129251702</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="3"/>
+        <v>11.057823129251702</v>
+      </c>
+      <c r="AF5">
+        <f>AVERAGE(Z5:AE5)</f>
+        <v>6.2341269841269842</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6">
         <v>100</v>
       </c>
@@ -495,22 +1938,116 @@
       <c r="H6">
         <v>100</v>
       </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>125</v>
+      </c>
+      <c r="N6">
+        <v>150</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>50</v>
+      </c>
+      <c r="S6">
+        <f>(L6/44100)*170.18*100</f>
+        <v>38.589569160997733</v>
+      </c>
+      <c r="T6" s="2">
+        <f>(M6/44100)*170.18*100</f>
+        <v>48.236961451247168</v>
+      </c>
+      <c r="U6" s="2">
+        <f>(N6/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="V6">
+        <f>(O6/44100)*170.18*100</f>
+        <v>38.589569160997733</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="2"/>
+        <v>11.410430839002267</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="3"/>
+        <v>1.7630385487528315</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="3"/>
+        <v>7.8843537414965965</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="3"/>
+        <v>11.410430839002267</v>
+      </c>
+      <c r="AF6">
+        <f>AVERAGE(Z6:AE6)</f>
+        <v>8.1170634920634903</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
         <v>125</v>
       </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7">
-        <v>2025</v>
+        <v>125</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
+      <c r="H7" s="1"/>
+      <c r="L7">
+        <v>125</v>
+      </c>
+      <c r="M7">
+        <v>125</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>60</v>
+      </c>
+      <c r="S7" s="2">
+        <f>(L7/44100)*170.18*100</f>
+        <v>48.236961451247168</v>
+      </c>
+      <c r="T7" s="2">
+        <f>(M7/44100)*170.18*100</f>
+        <v>48.236961451247168</v>
+      </c>
+      <c r="U7">
+        <f>(N7/44100)*170.18*100</f>
+        <v>38.589569160997733</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="2"/>
+        <v>11.763038548752832</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="3"/>
+        <v>11.763038548752832</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="3"/>
+        <v>21.410430839002267</v>
+      </c>
+      <c r="AF7">
+        <f>AVERAGE(Z7:AE7)</f>
+        <v>14.978835978835976</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -520,14 +2057,67 @@
       <c r="D8">
         <v>150</v>
       </c>
+      <c r="E8" s="1"/>
       <c r="F8">
         <v>125</v>
       </c>
+      <c r="G8" s="1"/>
       <c r="H8">
         <v>150</v>
       </c>
+      <c r="L8">
+        <v>200</v>
+      </c>
+      <c r="M8">
+        <v>150</v>
+      </c>
+      <c r="N8">
+        <v>125</v>
+      </c>
+      <c r="O8">
+        <v>150</v>
+      </c>
+      <c r="R8">
+        <v>70</v>
+      </c>
+      <c r="S8" s="2">
+        <f>(L8/44100)*170.18*100</f>
+        <v>77.179138321995467</v>
+      </c>
+      <c r="T8" s="2">
+        <f>(M8/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="U8">
+        <f>(N8/44100)*170.18*100</f>
+        <v>48.236961451247168</v>
+      </c>
+      <c r="V8" s="2">
+        <f>(O8/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>7.1791383219954668</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="3"/>
+        <v>12.115646258503403</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="3"/>
+        <v>21.763038548752832</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="3"/>
+        <v>12.115646258503403</v>
+      </c>
+      <c r="AF8">
+        <f>AVERAGE(Z8:AE8)</f>
+        <v>13.293367346938776</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -546,11 +2136,75 @@
       <c r="G9">
         <v>150</v>
       </c>
+      <c r="H9" s="1"/>
+      <c r="L9">
+        <v>175</v>
+      </c>
+      <c r="M9">
+        <v>175</v>
+      </c>
+      <c r="N9">
+        <v>150</v>
+      </c>
+      <c r="O9">
+        <v>175</v>
+      </c>
+      <c r="P9">
+        <v>150</v>
+      </c>
+      <c r="R9">
+        <v>80</v>
+      </c>
+      <c r="S9" s="2">
+        <f>(L9/44100)*170.18*100</f>
+        <v>67.531746031746025</v>
+      </c>
+      <c r="T9" s="2">
+        <f>(M9/44100)*170.18*100</f>
+        <v>67.531746031746025</v>
+      </c>
+      <c r="U9">
+        <f>(N9/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="V9" s="2">
+        <f>(O9/44100)*170.18*100</f>
+        <v>67.531746031746025</v>
+      </c>
+      <c r="W9">
+        <f>(P9/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>12.468253968253975</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="3"/>
+        <v>12.468253968253975</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="3"/>
+        <v>22.115646258503403</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="3"/>
+        <v>12.468253968253975</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="3"/>
+        <v>22.115646258503403</v>
+      </c>
+      <c r="AF9">
+        <f>AVERAGE(Z9:AE9)</f>
+        <v>16.327210884353747</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10" s="1"/>
       <c r="D10">
         <v>200</v>
       </c>
@@ -566,14 +2220,77 @@
       <c r="H10">
         <v>175</v>
       </c>
+      <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>250</v>
+      </c>
+      <c r="P10">
+        <v>175</v>
+      </c>
+      <c r="R10">
+        <v>90</v>
+      </c>
+      <c r="S10" s="2">
+        <f>(L10/44100)*170.18*100</f>
+        <v>77.179138321995467</v>
+      </c>
+      <c r="T10" s="2">
+        <f>(M10/44100)*170.18*100</f>
+        <v>77.179138321995467</v>
+      </c>
+      <c r="U10" s="2">
+        <f>(N10/44100)*170.18*100</f>
+        <v>77.179138321995467</v>
+      </c>
+      <c r="V10" s="2">
+        <f>(O10/44100)*170.18*100</f>
+        <v>96.473922902494337</v>
+      </c>
+      <c r="W10">
+        <f>(P10/44100)*170.18*100</f>
+        <v>67.531746031746025</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>12.820861678004533</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="3"/>
+        <v>12.820861678004533</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="3"/>
+        <v>12.820861678004533</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="3"/>
+        <v>6.473922902494337</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="3"/>
+        <v>22.468253968253975</v>
+      </c>
+      <c r="AF10">
+        <f>AVERAGE(Z10:AE10)</f>
+        <v>13.480952380952383</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
         <v>250</v>
       </c>
+      <c r="D11" s="1"/>
       <c r="E11">
         <v>275</v>
       </c>
@@ -586,26 +2303,88 @@
       <c r="H11">
         <v>250</v>
       </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11">
+        <v>275</v>
+      </c>
+      <c r="N11">
+        <v>175</v>
+      </c>
+      <c r="O11">
+        <v>200</v>
+      </c>
+      <c r="P11">
+        <v>250</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11" s="2">
+        <f>(L11/44100)*170.18*100</f>
+        <v>96.473922902494337</v>
+      </c>
+      <c r="T11" s="2">
+        <f>(M11/44100)*170.18*100</f>
+        <v>106.12131519274377</v>
+      </c>
+      <c r="U11">
+        <f>(N11/44100)*170.18*100</f>
+        <v>67.531746031746025</v>
+      </c>
+      <c r="V11">
+        <f>(O11/44100)*170.18*100</f>
+        <v>77.179138321995467</v>
+      </c>
+      <c r="W11" s="2">
+        <f>(P11/44100)*170.18*100</f>
+        <v>96.473922902494337</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>3.526077097505663</v>
+      </c>
+      <c r="AA11">
+        <f>ABS($R11-T11)</f>
+        <v>6.121315192743765</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="3"/>
+        <v>32.468253968253975</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>22.820861678004533</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="3"/>
+        <v>3.526077097505663</v>
+      </c>
+      <c r="AF11">
+        <f>AVERAGE(Z11:AE11)</f>
+        <v>13.692517006802721</v>
+      </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14">
         <v>25</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14">
@@ -614,14 +2393,55 @@
       <c r="H14">
         <v>25</v>
       </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>25</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14" s="2">
+        <f>(L14/44100)*170.18*100</f>
+        <v>9.6473922902494333</v>
+      </c>
+      <c r="T14" s="2">
+        <f>(M14/44100)*170.18*100</f>
+        <v>9.6473922902494333</v>
+      </c>
+      <c r="U14" s="2">
+        <f>(N14/44100)*170.18*100</f>
+        <v>9.6473922902494333</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" ref="Z14:AB23" si="4">ABS($R14-S14)</f>
+        <v>0.35260770975056666</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="4"/>
+        <v>0.35260770975056666</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="4"/>
+        <v>0.35260770975056666</v>
+      </c>
+      <c r="AF14">
+        <f>AVERAGE(Z14:AE14)</f>
+        <v>0.35260770975056666</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
+      <c r="D15" s="1"/>
       <c r="E15">
         <v>25</v>
       </c>
@@ -634,15 +2454,66 @@
       <c r="H15">
         <v>100</v>
       </c>
+      <c r="L15">
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>20</v>
+      </c>
+      <c r="S15">
+        <f>(L15/44100)*170.18*100</f>
+        <v>9.6473922902494333</v>
+      </c>
+      <c r="T15" s="2">
+        <f>(M15/44100)*170.18*100</f>
+        <v>19.294784580498867</v>
+      </c>
+      <c r="U15">
+        <f>(N15/44100)*170.18*100</f>
+        <v>9.6473922902494333</v>
+      </c>
+      <c r="V15">
+        <f>(O15/44100)*170.18*100</f>
+        <v>38.589569160997733</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="4"/>
+        <v>10.352607709750567</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="4"/>
+        <v>0.70521541950113331</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="4"/>
+        <v>10.352607709750567</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" ref="AC15:AC16" si="5">ABS($R15-V15)</f>
+        <v>18.589569160997733</v>
+      </c>
+      <c r="AF15">
+        <f>AVERAGE(Z15:AE15)</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16">
         <v>150</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16">
@@ -657,8 +2528,70 @@
       <c r="H16">
         <v>75</v>
       </c>
+      <c r="L16">
+        <v>150</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>75</v>
+      </c>
+      <c r="P16">
+        <v>75</v>
+      </c>
+      <c r="R16">
+        <v>30</v>
+      </c>
+      <c r="S16">
+        <f>(L16/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="T16">
+        <f>(M16/44100)*170.18*100</f>
+        <v>9.6473922902494333</v>
+      </c>
+      <c r="U16">
+        <f>(N16/44100)*170.18*100</f>
+        <v>9.6473922902494333</v>
+      </c>
+      <c r="V16" s="2">
+        <f>(O16/44100)*170.18*100</f>
+        <v>28.942176870748298</v>
+      </c>
+      <c r="W16" s="2">
+        <f>(P16/44100)*170.18*100</f>
+        <v>28.942176870748298</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="4"/>
+        <v>27.884353741496597</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="4"/>
+        <v>20.352607709750565</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="4"/>
+        <v>20.352607709750565</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="5"/>
+        <v>1.0578231292517017</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" ref="AD16" si="6">ABS($R16-W16)</f>
+        <v>1.0578231292517017</v>
+      </c>
+      <c r="AF16">
+        <f>AVERAGE(Z16:AE16)</f>
+        <v>14.141043083900225</v>
+      </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -671,28 +2604,115 @@
       <c r="E17">
         <v>100</v>
       </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="L17">
+        <v>175</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>40</v>
+      </c>
+      <c r="S17">
+        <f>(L17/44100)*170.18*100</f>
+        <v>67.531746031746025</v>
+      </c>
+      <c r="T17">
+        <f>(M17/44100)*170.18*100</f>
+        <v>19.294784580498867</v>
+      </c>
+      <c r="U17" s="2">
+        <f>(N17/44100)*170.18*100</f>
+        <v>38.589569160997733</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="4"/>
+        <v>27.531746031746025</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>20.705215419501133</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="4"/>
+        <v>1.4104308390022666</v>
+      </c>
+      <c r="AF17">
+        <f>AVERAGE(Z17:AE17)</f>
+        <v>16.549130763416475</v>
+      </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>4</v>
       </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18">
         <v>100</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18">
         <v>75</v>
       </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>75</v>
+      </c>
+      <c r="R18">
+        <v>50</v>
+      </c>
+      <c r="S18">
+        <f>(L18/44100)*170.18*100</f>
+        <v>38.589569160997733</v>
+      </c>
+      <c r="T18">
+        <f>(M18/44100)*170.18*100</f>
+        <v>38.589569160997733</v>
+      </c>
+      <c r="U18">
+        <f>(N18/44100)*170.18*100</f>
+        <v>28.942176870748298</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="4"/>
+        <v>11.410430839002267</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="4"/>
+        <v>11.410430839002267</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="4"/>
+        <v>21.057823129251702</v>
+      </c>
+      <c r="AF18">
+        <f>AVERAGE(Z18:AE18)</f>
+        <v>14.626228269085411</v>
+      </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
       </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19">
         <v>125</v>
       </c>
@@ -705,19 +2725,103 @@
       <c r="H19">
         <v>250</v>
       </c>
+      <c r="L19">
+        <v>125</v>
+      </c>
+      <c r="M19">
+        <v>125</v>
+      </c>
+      <c r="N19">
+        <v>150</v>
+      </c>
+      <c r="O19">
+        <v>250</v>
+      </c>
+      <c r="R19">
+        <v>60</v>
+      </c>
+      <c r="S19" s="2">
+        <f>(L19/44100)*170.18*100</f>
+        <v>48.236961451247168</v>
+      </c>
+      <c r="T19" s="2">
+        <f>(M19/44100)*170.18*100</f>
+        <v>48.236961451247168</v>
+      </c>
+      <c r="U19" s="2">
+        <f>(N19/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="V19">
+        <f>(O19/44100)*170.18*100</f>
+        <v>96.473922902494337</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="4"/>
+        <v>11.763038548752832</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="4"/>
+        <v>11.763038548752832</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="4"/>
+        <v>2.1156462585034035</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" ref="AC19" si="7">ABS($R19-V19)</f>
+        <v>36.473922902494337</v>
+      </c>
+      <c r="AF19">
+        <f>AVERAGE(Z19:AE19)</f>
+        <v>15.528911564625851</v>
+      </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>6</v>
       </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20">
         <v>125</v>
       </c>
       <c r="F20">
         <v>150</v>
       </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="L20">
+        <v>125</v>
+      </c>
+      <c r="M20">
+        <v>150</v>
+      </c>
+      <c r="R20">
+        <v>70</v>
+      </c>
+      <c r="S20">
+        <f>(L20/44100)*170.18*100</f>
+        <v>48.236961451247168</v>
+      </c>
+      <c r="T20" s="2">
+        <f>(M20/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="4"/>
+        <v>21.763038548752832</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="4"/>
+        <v>12.115646258503403</v>
+      </c>
+      <c r="AF20">
+        <f>AVERAGE(Z20:AE20)</f>
+        <v>16.939342403628117</v>
+      </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -739,11 +2843,85 @@
       <c r="H21">
         <v>150</v>
       </c>
+      <c r="L21">
+        <v>125</v>
+      </c>
+      <c r="M21">
+        <v>175</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>150</v>
+      </c>
+      <c r="P21">
+        <v>175</v>
+      </c>
+      <c r="Q21">
+        <v>150</v>
+      </c>
+      <c r="R21">
+        <v>80</v>
+      </c>
+      <c r="S21">
+        <f>(L21/44100)*170.18*100</f>
+        <v>48.236961451247168</v>
+      </c>
+      <c r="T21" s="2">
+        <f>(M21/44100)*170.18*100</f>
+        <v>67.531746031746025</v>
+      </c>
+      <c r="U21">
+        <f>(N21/44100)*170.18*100</f>
+        <v>38.589569160997733</v>
+      </c>
+      <c r="V21">
+        <f>(O21/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="W21" s="2">
+        <f>(P21/44100)*170.18*100</f>
+        <v>67.531746031746025</v>
+      </c>
+      <c r="X21">
+        <f>(Q21/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="4"/>
+        <v>31.763038548752832</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="4"/>
+        <v>12.468253968253975</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" ref="AB21:AB23" si="8">ABS($R21-U21)</f>
+        <v>41.410430839002267</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" ref="AC21:AC23" si="9">ABS($R21-V21)</f>
+        <v>22.115646258503403</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" ref="AD21:AD23" si="10">ABS($R21-W21)</f>
+        <v>12.468253968253975</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" ref="AE21" si="11">ABS($R21-X21)</f>
+        <v>22.115646258503403</v>
+      </c>
+      <c r="AF21">
+        <f>AVERAGE(Z21:AE21)</f>
+        <v>23.723544973544975</v>
+      </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
+      <c r="C22" s="1"/>
       <c r="D22">
         <v>225</v>
       </c>
@@ -756,8 +2934,60 @@
       <c r="G22">
         <v>125</v>
       </c>
+      <c r="H22" s="1"/>
+      <c r="L22">
+        <v>225</v>
+      </c>
+      <c r="M22">
+        <v>150</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>125</v>
+      </c>
+      <c r="R22">
+        <v>90</v>
+      </c>
+      <c r="S22" s="2">
+        <f>(L22/44100)*170.18*100</f>
+        <v>86.826530612244895</v>
+      </c>
+      <c r="T22">
+        <f>(M22/44100)*170.18*100</f>
+        <v>57.884353741496597</v>
+      </c>
+      <c r="U22">
+        <f>(N22/44100)*170.18*100</f>
+        <v>28.942176870748298</v>
+      </c>
+      <c r="V22">
+        <f>(O22/44100)*170.18*100</f>
+        <v>48.236961451247168</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="4"/>
+        <v>3.1734693877551052</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="4"/>
+        <v>32.115646258503403</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="8"/>
+        <v>61.057823129251702</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="9"/>
+        <v>41.763038548752832</v>
+      </c>
+      <c r="AF22">
+        <f>AVERAGE(Z22:AE22)</f>
+        <v>34.52749433106576</v>
+      </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -779,8 +3009,81 @@
       <c r="H23">
         <v>200</v>
       </c>
+      <c r="L23">
+        <v>225</v>
+      </c>
+      <c r="M23">
+        <v>225</v>
+      </c>
+      <c r="N23">
+        <v>225</v>
+      </c>
+      <c r="O23">
+        <v>225</v>
+      </c>
+      <c r="P23">
+        <v>225</v>
+      </c>
+      <c r="Q23">
+        <v>200</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+      <c r="S23" s="2">
+        <f>(L23/44100)*170.18*100</f>
+        <v>86.826530612244895</v>
+      </c>
+      <c r="T23" s="2">
+        <f>(M23/44100)*170.18*100</f>
+        <v>86.826530612244895</v>
+      </c>
+      <c r="U23" s="2">
+        <f>(N23/44100)*170.18*100</f>
+        <v>86.826530612244895</v>
+      </c>
+      <c r="V23" s="2">
+        <f>(O23/44100)*170.18*100</f>
+        <v>86.826530612244895</v>
+      </c>
+      <c r="W23" s="2">
+        <f>(P23/44100)*170.18*100</f>
+        <v>86.826530612244895</v>
+      </c>
+      <c r="X23">
+        <f>(Q23/44100)*170.18*100</f>
+        <v>77.179138321995467</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="4"/>
+        <v>13.173469387755105</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="4"/>
+        <v>13.173469387755105</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="8"/>
+        <v>13.173469387755105</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="9"/>
+        <v>13.173469387755105</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="10"/>
+        <v>13.173469387755105</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" ref="AE23" si="12">ABS($R23-X23)</f>
+        <v>22.820861678004533</v>
+      </c>
+      <c r="AF23">
+        <f>AVERAGE(Z23:AE23)</f>
+        <v>14.781368102796677</v>
+      </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -790,34 +3093,160 @@
       <c r="D24">
         <v>250</v>
       </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24">
         <v>275</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="L24">
+        <v>225</v>
+      </c>
+      <c r="M24">
+        <v>250</v>
+      </c>
+      <c r="N24">
+        <v>275</v>
+      </c>
+      <c r="R24">
+        <v>110</v>
+      </c>
+      <c r="S24">
+        <f>(L24/44100)*170.18*100</f>
+        <v>86.826530612244895</v>
+      </c>
+      <c r="T24" s="2">
+        <f>(M24/44100)*170.18*100</f>
+        <v>96.473922902494337</v>
+      </c>
+      <c r="U24" s="2">
+        <f>(N24/44100)*170.18*100</f>
+        <v>106.12131519274377</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ref="Z24" si="13">ABS($R24-S24)</f>
+        <v>23.173469387755105</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ref="AA24" si="14">ABS($R24-T24)</f>
+        <v>13.526077097505663</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" ref="AB24" si="15">ABS($R24-U24)</f>
+        <v>3.878684807256235</v>
+      </c>
+      <c r="AF24">
+        <f>AVERAGE(Z24:AE24)</f>
+        <v>13.526077097505668</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="U29" t="s">
+        <v>16</v>
+      </c>
+      <c r="V29">
+        <f>COUNTIF(Z2:AD11,"&lt;=13,9")</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>17</v>
+      </c>
+      <c r="V30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="U32" t="s">
+        <v>16</v>
+      </c>
+      <c r="V32">
+        <f>COUNTIF(Z14:AE24,"&lt;=13,9")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentatie/Experimenten/Afstanden.xlsx
+++ b/Documentatie/Experimenten/Afstanden.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>10cm</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>Fout groter dan 13,9</t>
+  </si>
+  <si>
+    <t>Mislukt</t>
+  </si>
+  <si>
+    <t>Binnen foutmarge van 20%</t>
+  </si>
+  <si>
+    <t>Buiten foutmarge van 20%</t>
+  </si>
+  <si>
+    <t>Binnen de marge</t>
+  </si>
+  <si>
+    <t>Buiten de marge</t>
   </si>
 </sst>
 </file>
@@ -288,10 +303,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -302,11 +317,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2800"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL"/>
-              <a:t>60 * Beep periode</a:t>
+              <a:rPr lang="nl-NL" sz="2800"/>
+              <a:t>Classificatie van metingen</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -337,13 +352,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Mislukte meting</c:v>
+                  <c:v>Mislukt</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fout groter dan 20%</c:v>
+                  <c:v>Buiten foutmarge van 20%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>tot 20% accuraat</c:v>
+                  <c:v>Binnen foutmarge van 20%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -355,13 +370,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,9 +395,19 @@
       </c:pieChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -403,14 +428,29 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>Geluidslengte van 150 samples</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -425,9 +465,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>30 * Beep periode</c:v>
+            <c:v>Gemiddelde fout</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$R$2:$R$11</c:f>
@@ -574,7 +619,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1800"/>
                   <a:t>Gemiddelde fout (m)</a:t>
                 </a:r>
               </a:p>
@@ -593,9 +638,19 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -616,14 +671,30 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>Geluidslengte van 300 samples</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="2800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -638,9 +709,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>60 * Beep periode</c:v>
+            <c:v>Gemiddelde fout</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$R$14:$R$24</c:f>
@@ -793,7 +869,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1800"/>
                   <a:t>Gemiddelde fout (m)</a:t>
                 </a:r>
               </a:p>
@@ -812,7 +888,33 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -997,10 +1099,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1010,66 +1112,13 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr>
+              <a:defRPr sz="2800"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>60 * Beep periode</a:t>
+              <a:rPr lang="nl-NL" sz="2800"/>
+              <a:t>Foutmarge van 13,9 cm</a:t>
             </a:r>
-            <a:endParaRPr lang="nl-NL">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1099,10 +1148,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Fout kleiner of gelijk dan 13,9</c:v>
+                  <c:v>Binnen de marge</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fout groter dan 13,9</c:v>
+                  <c:v>Buiten de marge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1114,10 +1163,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,9 +1185,19 @@
       </c:pieChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1156,16 +1215,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1186,16 +1245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367144</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>93086</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1216,16 +1275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>290511</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1246,16 +1305,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1276,15 +1335,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1307,15 +1366,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>238556</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1626,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AQ57" sqref="AQ57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,19 +3218,18 @@
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="U32" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="V32">
-        <f>COUNTIF(Z14:AE24,"&lt;=13,9")</f>
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="V33">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -3200,26 +3258,26 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B63">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B64">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B65">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Experimenten/Afstanden.xlsx
+++ b/Documentatie/Experimenten/Afstanden.xlsx
@@ -338,6 +338,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -561,11 +571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="241752704"/>
-        <c:axId val="241867392"/>
+        <c:axId val="288114944"/>
+        <c:axId val="288117120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241752704"/>
+        <c:axId val="288114944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,10 +588,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Werkelijke afstand (m)</a:t>
                 </a:r>
               </a:p>
@@ -594,7 +604,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241867392"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288117120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -602,7 +622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241867392"/>
+        <c:axId val="288117120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +652,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241752704"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288114944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,11 +841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="99996416"/>
-        <c:axId val="99997952"/>
+        <c:axId val="288147328"/>
+        <c:axId val="288157696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99996416"/>
+        <c:axId val="288147328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,10 +858,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1800"/>
                   <a:t>Werkelijke afstand (m)</a:t>
                 </a:r>
               </a:p>
@@ -844,7 +874,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99997952"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288157696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99997952"/>
+        <c:axId val="288157696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +922,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99996416"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288147328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1134,6 +1184,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1685,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AQ57" sqref="AQ57"/>
     </sheetView>
   </sheetViews>
@@ -1740,19 +1800,19 @@
         <v>10</v>
       </c>
       <c r="S2">
-        <f>(L2/44100)*170.18*100</f>
+        <f t="shared" ref="S2:S11" si="0">(L2/44100)*170.18*100</f>
         <v>-9.6473922902494333</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:V2" si="0">(M2/44100)*170.18*100</f>
+        <f t="shared" ref="T2:V2" si="1">(M2/44100)*170.18*100</f>
         <v>-9.6473922902494333</v>
       </c>
       <c r="U2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.6473922902494333</v>
       </c>
       <c r="V2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-28.942176870748298</v>
       </c>
       <c r="Z2">
@@ -1760,19 +1820,19 @@
         <v>19.647392290249435</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AC2" si="1">ABS($R2-T2)</f>
+        <f t="shared" ref="AA2:AC2" si="2">ABS($R2-T2)</f>
         <v>19.647392290249435</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.647392290249435</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.942176870748298</v>
       </c>
       <c r="AF2">
-        <f>AVERAGE(Z2:AE2)</f>
+        <f t="shared" ref="AF2:AF11" si="3">AVERAGE(Z2:AE2)</f>
         <v>24.471088435374149</v>
       </c>
     </row>
@@ -1809,15 +1869,15 @@
         <v>20</v>
       </c>
       <c r="S3">
-        <f>(L3/44100)*170.18*100</f>
+        <f t="shared" si="0"/>
         <v>-9.6473922902494333</v>
       </c>
       <c r="T3" s="2">
-        <f>(M3/44100)*170.18*100</f>
+        <f t="shared" ref="T3:T11" si="4">(M3/44100)*170.18*100</f>
         <v>19.294784580498867</v>
       </c>
       <c r="U3">
-        <f>(N3/44100)*170.18*100</f>
+        <f t="shared" ref="U3:U11" si="5">(N3/44100)*170.18*100</f>
         <v>-9.6473922902494333</v>
       </c>
       <c r="Z3">
@@ -1833,7 +1893,7 @@
         <v>29.647392290249435</v>
       </c>
       <c r="AF3">
-        <f>AVERAGE(Z3:AE3)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -1871,15 +1931,15 @@
         <v>30</v>
       </c>
       <c r="S4">
-        <f>(L4/44100)*170.18*100</f>
+        <f t="shared" si="0"/>
         <v>19.294784580498867</v>
       </c>
       <c r="T4">
-        <f>(M4/44100)*170.18*100</f>
+        <f t="shared" si="4"/>
         <v>-19.294784580498867</v>
       </c>
       <c r="U4">
-        <f>(N4/44100)*170.18*100</f>
+        <f t="shared" si="5"/>
         <v>19.294784580498867</v>
       </c>
       <c r="V4">
@@ -1887,7 +1947,7 @@
         <v>-28.942176870748298</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z11" si="2">ABS($R4-S4)</f>
+        <f t="shared" ref="Z4:Z11" si="6">ABS($R4-S4)</f>
         <v>10.705215419501133</v>
       </c>
       <c r="AA4">
@@ -1895,15 +1955,15 @@
         <v>49.29478458049887</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AA4:AD11" si="3">ABS($R4-U4)</f>
+        <f t="shared" ref="AA4:AD11" si="7">ABS($R4-U4)</f>
         <v>10.705215419501133</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="7"/>
+        <v>58.942176870748298</v>
+      </c>
+      <c r="AF4">
         <f t="shared" si="3"/>
-        <v>58.942176870748298</v>
-      </c>
-      <c r="AF4">
-        <f>AVERAGE(Z4:AE4)</f>
         <v>32.411848072562357</v>
       </c>
     </row>
@@ -1943,15 +2003,15 @@
         <v>40</v>
       </c>
       <c r="S5" s="2">
-        <f>(L5/44100)*170.18*100</f>
+        <f t="shared" si="0"/>
         <v>38.589569160997733</v>
       </c>
       <c r="T5" s="2">
-        <f>(M5/44100)*170.18*100</f>
+        <f t="shared" si="4"/>
         <v>38.589569160997733</v>
       </c>
       <c r="U5">
-        <f>(N5/44100)*170.18*100</f>
+        <f t="shared" si="5"/>
         <v>28.942176870748298</v>
       </c>
       <c r="V5">
@@ -1959,23 +2019,23 @@
         <v>28.942176870748298</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.4104308390022666</v>
       </c>
       <c r="AA5">
+        <f t="shared" si="7"/>
+        <v>1.4104308390022666</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="7"/>
+        <v>11.057823129251702</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="7"/>
+        <v>11.057823129251702</v>
+      </c>
+      <c r="AF5">
         <f t="shared" si="3"/>
-        <v>1.4104308390022666</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="3"/>
-        <v>11.057823129251702</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="3"/>
-        <v>11.057823129251702</v>
-      </c>
-      <c r="AF5">
-        <f>AVERAGE(Z5:AE5)</f>
         <v>6.2341269841269842</v>
       </c>
     </row>
@@ -2013,15 +2073,15 @@
         <v>50</v>
       </c>
       <c r="S6">
-        <f>(L6/44100)*170.18*100</f>
+        <f t="shared" si="0"/>
         <v>38.589569160997733</v>
       </c>
       <c r="T6" s="2">
-        <f>(M6/44100)*170.18*100</f>
+        <f t="shared" si="4"/>
         <v>48.236961451247168</v>
       </c>
       <c r="U6" s="2">
-        <f>(N6/44100)*170.18*100</f>
+        <f t="shared" si="5"/>
         <v>57.884353741496597</v>
       </c>
       <c r="V6">
@@ -2029,23 +2089,23 @@
         <v>38.589569160997733</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11.410430839002267</v>
       </c>
       <c r="AA6">
+        <f t="shared" si="7"/>
+        <v>1.7630385487528315</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="7"/>
+        <v>7.8843537414965965</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="7"/>
+        <v>11.410430839002267</v>
+      </c>
+      <c r="AF6">
         <f t="shared" si="3"/>
-        <v>1.7630385487528315</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="3"/>
-        <v>7.8843537414965965</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="3"/>
-        <v>11.410430839002267</v>
-      </c>
-      <c r="AF6">
-        <f>AVERAGE(Z6:AE6)</f>
         <v>8.1170634920634903</v>
       </c>
     </row>
@@ -2078,31 +2138,31 @@
         <v>60</v>
       </c>
       <c r="S7" s="2">
-        <f>(L7/44100)*170.18*100</f>
+        <f t="shared" si="0"/>
         <v>48.236961451247168</v>
       </c>
       <c r="T7" s="2">
-        <f>(M7/44100)*170.18*100</f>
+        <f t="shared" si="4"/>
         <v>48.236961451247168</v>
       </c>
       <c r="U7">
-        <f>(N7/44100)*170.18*100</f>
+        <f t="shared" si="5"/>
         <v>38.589569160997733</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11.763038548752832</v>
       </c>
       <c r="AA7">
+        <f t="shared" si="7"/>
+        <v>11.763038548752832</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="7"/>
+        <v>21.410430839002267</v>
+      </c>
+      <c r="AF7">
         <f t="shared" si="3"/>
-        <v>11.763038548752832</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="3"/>
-        <v>21.410430839002267</v>
-      </c>
-      <c r="AF7">
-        <f>AVERAGE(Z7:AE7)</f>
         <v>14.978835978835976</v>
       </c>
     </row>
@@ -2140,15 +2200,15 @@
         <v>70</v>
       </c>
       <c r="S8" s="2">
-        <f>(L8/44100)*170.18*100</f>
+        <f t="shared" si="0"/>
         <v>77.179138321995467</v>
       </c>
       <c r="T8" s="2">
-        <f>(M8/44100)*170.18*100</f>
+        <f t="shared" si="4"/>
         <v>57.884353741496597</v>
       </c>
       <c r="U8">
-        <f>(N8/44100)*170.18*100</f>
+        <f t="shared" si="5"/>
         <v>48.236961451247168</v>
       </c>
       <c r="V8" s="2">
@@ -2156,23 +2216,23 @@
         <v>57.884353741496597</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.1791383219954668</v>
       </c>
       <c r="AA8">
+        <f t="shared" si="7"/>
+        <v>12.115646258503403</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="7"/>
+        <v>21.763038548752832</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="7"/>
+        <v>12.115646258503403</v>
+      </c>
+      <c r="AF8">
         <f t="shared" si="3"/>
-        <v>12.115646258503403</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="3"/>
-        <v>21.763038548752832</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="3"/>
-        <v>12.115646258503403</v>
-      </c>
-      <c r="AF8">
-        <f>AVERAGE(Z8:AE8)</f>
         <v>13.293367346938776</v>
       </c>
     </row>
@@ -2215,15 +2275,15 @@
         <v>80</v>
       </c>
       <c r="S9" s="2">
-        <f>(L9/44100)*170.18*100</f>
+        <f t="shared" si="0"/>
         <v>67.531746031746025</v>
       </c>
       <c r="T9" s="2">
-        <f>(M9/44100)*170.18*100</f>
+        <f t="shared" si="4"/>
         <v>67.531746031746025</v>
       </c>
       <c r="U9">
-        <f>(N9/44100)*170.18*100</f>
+        <f t="shared" si="5"/>
         <v>57.884353741496597</v>
       </c>
       <c r="V9" s="2">
@@ -2235,27 +2295,27 @@
         <v>57.884353741496597</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.468253968253975</v>
       </c>
       <c r="AA9">
+        <f t="shared" si="7"/>
+        <v>12.468253968253975</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="7"/>
+        <v>22.115646258503403</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="7"/>
+        <v>12.468253968253975</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="7"/>
+        <v>22.115646258503403</v>
+      </c>
+      <c r="AF9">
         <f t="shared" si="3"/>
-        <v>12.468253968253975</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="3"/>
-        <v>22.115646258503403</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="3"/>
-        <v>12.468253968253975</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="3"/>
-        <v>22.115646258503403</v>
-      </c>
-      <c r="AF9">
-        <f>AVERAGE(Z9:AE9)</f>
         <v>16.327210884353747</v>
       </c>
     </row>
@@ -2298,15 +2358,15 @@
         <v>90</v>
       </c>
       <c r="S10" s="2">
-        <f>(L10/44100)*170.18*100</f>
+        <f t="shared" si="0"/>
         <v>77.179138321995467</v>
       </c>
       <c r="T10" s="2">
-        <f>(M10/44100)*170.18*100</f>
+        <f t="shared" si="4"/>
         <v>77.179138321995467</v>
       </c>
       <c r="U10" s="2">
-        <f>(N10/44100)*170.18*100</f>
+        <f t="shared" si="5"/>
         <v>77.179138321995467</v>
       </c>
       <c r="V10" s="2">
@@ -2318,27 +2378,27 @@
         <v>67.531746031746025</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.820861678004533</v>
       </c>
       <c r="AA10">
+        <f t="shared" si="7"/>
+        <v>12.820861678004533</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="7"/>
+        <v>12.820861678004533</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="7"/>
+        <v>6.473922902494337</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="7"/>
+        <v>22.468253968253975</v>
+      </c>
+      <c r="AF10">
         <f t="shared" si="3"/>
-        <v>12.820861678004533</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="3"/>
-        <v>12.820861678004533</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="3"/>
-        <v>6.473922902494337</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="3"/>
-        <v>22.468253968253975</v>
-      </c>
-      <c r="AF10">
-        <f>AVERAGE(Z10:AE10)</f>
         <v>13.480952380952383</v>
       </c>
     </row>
@@ -2381,15 +2441,15 @@
         <v>100</v>
       </c>
       <c r="S11" s="2">
-        <f>(L11/44100)*170.18*100</f>
+        <f t="shared" si="0"/>
         <v>96.473922902494337</v>
       </c>
       <c r="T11" s="2">
-        <f>(M11/44100)*170.18*100</f>
+        <f t="shared" si="4"/>
         <v>106.12131519274377</v>
       </c>
       <c r="U11">
-        <f>(N11/44100)*170.18*100</f>
+        <f t="shared" si="5"/>
         <v>67.531746031746025</v>
       </c>
       <c r="V11">
@@ -2401,7 +2461,7 @@
         <v>96.473922902494337</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.526077097505663</v>
       </c>
       <c r="AA11">
@@ -2409,19 +2469,19 @@
         <v>6.121315192743765</v>
       </c>
       <c r="AB11">
+        <f t="shared" si="7"/>
+        <v>32.468253968253975</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="7"/>
+        <v>22.820861678004533</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="7"/>
+        <v>3.526077097505663</v>
+      </c>
+      <c r="AF11">
         <f t="shared" si="3"/>
-        <v>32.468253968253975</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="3"/>
-        <v>22.820861678004533</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="3"/>
-        <v>3.526077097505663</v>
-      </c>
-      <c r="AF11">
-        <f>AVERAGE(Z11:AE11)</f>
         <v>13.692517006802721</v>
       </c>
     </row>
@@ -2465,31 +2525,31 @@
         <v>10</v>
       </c>
       <c r="S14" s="2">
-        <f>(L14/44100)*170.18*100</f>
+        <f t="shared" ref="S14:U19" si="8">(L14/44100)*170.18*100</f>
         <v>9.6473922902494333</v>
       </c>
       <c r="T14" s="2">
-        <f>(M14/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>9.6473922902494333</v>
       </c>
       <c r="U14" s="2">
-        <f>(N14/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>9.6473922902494333</v>
       </c>
       <c r="Z14">
-        <f t="shared" ref="Z14:AB23" si="4">ABS($R14-S14)</f>
+        <f t="shared" ref="Z14:AB23" si="9">ABS($R14-S14)</f>
         <v>0.35260770975056666</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.35260770975056666</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.35260770975056666</v>
       </c>
       <c r="AF14">
-        <f>AVERAGE(Z14:AE14)</f>
+        <f t="shared" ref="AF14:AF24" si="10">AVERAGE(Z14:AE14)</f>
         <v>0.35260770975056666</v>
       </c>
     </row>
@@ -2529,15 +2589,15 @@
         <v>20</v>
       </c>
       <c r="S15">
-        <f>(L15/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>9.6473922902494333</v>
       </c>
       <c r="T15" s="2">
-        <f>(M15/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>19.294784580498867</v>
       </c>
       <c r="U15">
-        <f>(N15/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>9.6473922902494333</v>
       </c>
       <c r="V15">
@@ -2545,23 +2605,23 @@
         <v>38.589569160997733</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.352607709750567</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.70521541950113331</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.352607709750567</v>
       </c>
       <c r="AC15">
-        <f t="shared" ref="AC15:AC16" si="5">ABS($R15-V15)</f>
+        <f t="shared" ref="AC15:AC16" si="11">ABS($R15-V15)</f>
         <v>18.589569160997733</v>
       </c>
       <c r="AF15">
-        <f>AVERAGE(Z15:AE15)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
@@ -2606,15 +2666,15 @@
         <v>30</v>
       </c>
       <c r="S16">
-        <f>(L16/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>57.884353741496597</v>
       </c>
       <c r="T16">
-        <f>(M16/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>9.6473922902494333</v>
       </c>
       <c r="U16">
-        <f>(N16/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>9.6473922902494333</v>
       </c>
       <c r="V16" s="2">
@@ -2626,27 +2686,27 @@
         <v>28.942176870748298</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>27.884353741496597</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20.352607709750565</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20.352607709750565</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0578231292517017</v>
       </c>
       <c r="AD16">
-        <f t="shared" ref="AD16" si="6">ABS($R16-W16)</f>
+        <f t="shared" ref="AD16" si="12">ABS($R16-W16)</f>
         <v>1.0578231292517017</v>
       </c>
       <c r="AF16">
-        <f>AVERAGE(Z16:AE16)</f>
+        <f t="shared" si="10"/>
         <v>14.141043083900225</v>
       </c>
     </row>
@@ -2679,31 +2739,31 @@
         <v>40</v>
       </c>
       <c r="S17">
-        <f>(L17/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>67.531746031746025</v>
       </c>
       <c r="T17">
-        <f>(M17/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>19.294784580498867</v>
       </c>
       <c r="U17" s="2">
-        <f>(N17/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>38.589569160997733</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>27.531746031746025</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20.705215419501133</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.4104308390022666</v>
       </c>
       <c r="AF17">
-        <f>AVERAGE(Z17:AE17)</f>
+        <f t="shared" si="10"/>
         <v>16.549130763416475</v>
       </c>
     </row>
@@ -2738,31 +2798,31 @@
         <v>50</v>
       </c>
       <c r="S18">
-        <f>(L18/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>38.589569160997733</v>
       </c>
       <c r="T18">
-        <f>(M18/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>38.589569160997733</v>
       </c>
       <c r="U18">
-        <f>(N18/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>28.942176870748298</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.410430839002267</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.410430839002267</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>21.057823129251702</v>
       </c>
       <c r="AF18">
-        <f>AVERAGE(Z18:AE18)</f>
+        <f t="shared" si="10"/>
         <v>14.626228269085411</v>
       </c>
     </row>
@@ -2800,15 +2860,15 @@
         <v>60</v>
       </c>
       <c r="S19" s="2">
-        <f>(L19/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>48.236961451247168</v>
       </c>
       <c r="T19" s="2">
-        <f>(M19/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>48.236961451247168</v>
       </c>
       <c r="U19" s="2">
-        <f>(N19/44100)*170.18*100</f>
+        <f t="shared" si="8"/>
         <v>57.884353741496597</v>
       </c>
       <c r="V19">
@@ -2816,23 +2876,23 @@
         <v>96.473922902494337</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.763038548752832</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.763038548752832</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.1156462585034035</v>
       </c>
       <c r="AC19">
-        <f t="shared" ref="AC19" si="7">ABS($R19-V19)</f>
+        <f t="shared" ref="AC19" si="13">ABS($R19-V19)</f>
         <v>36.473922902494337</v>
       </c>
       <c r="AF19">
-        <f>AVERAGE(Z19:AE19)</f>
+        <f t="shared" si="10"/>
         <v>15.528911564625851</v>
       </c>
     </row>
@@ -2860,23 +2920,23 @@
         <v>70</v>
       </c>
       <c r="S20">
-        <f>(L20/44100)*170.18*100</f>
+        <f t="shared" ref="S20:T24" si="14">(L20/44100)*170.18*100</f>
         <v>48.236961451247168</v>
       </c>
       <c r="T20" s="2">
-        <f>(M20/44100)*170.18*100</f>
+        <f t="shared" si="14"/>
         <v>57.884353741496597</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>21.763038548752832</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.115646258503403</v>
       </c>
       <c r="AF20">
-        <f>AVERAGE(Z20:AE20)</f>
+        <f t="shared" si="10"/>
         <v>16.939342403628117</v>
       </c>
     </row>
@@ -2924,11 +2984,11 @@
         <v>80</v>
       </c>
       <c r="S21">
-        <f>(L21/44100)*170.18*100</f>
+        <f t="shared" si="14"/>
         <v>48.236961451247168</v>
       </c>
       <c r="T21" s="2">
-        <f>(M21/44100)*170.18*100</f>
+        <f t="shared" si="14"/>
         <v>67.531746031746025</v>
       </c>
       <c r="U21">
@@ -2948,31 +3008,31 @@
         <v>57.884353741496597</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>31.763038548752832</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.468253968253975</v>
       </c>
       <c r="AB21">
-        <f t="shared" ref="AB21:AB23" si="8">ABS($R21-U21)</f>
+        <f t="shared" ref="AB21:AB23" si="15">ABS($R21-U21)</f>
         <v>41.410430839002267</v>
       </c>
       <c r="AC21">
-        <f t="shared" ref="AC21:AC23" si="9">ABS($R21-V21)</f>
+        <f t="shared" ref="AC21:AC23" si="16">ABS($R21-V21)</f>
         <v>22.115646258503403</v>
       </c>
       <c r="AD21">
-        <f t="shared" ref="AD21:AD23" si="10">ABS($R21-W21)</f>
+        <f t="shared" ref="AD21:AD23" si="17">ABS($R21-W21)</f>
         <v>12.468253968253975</v>
       </c>
       <c r="AE21">
-        <f t="shared" ref="AE21" si="11">ABS($R21-X21)</f>
+        <f t="shared" ref="AE21" si="18">ABS($R21-X21)</f>
         <v>22.115646258503403</v>
       </c>
       <c r="AF21">
-        <f>AVERAGE(Z21:AE21)</f>
+        <f t="shared" si="10"/>
         <v>23.723544973544975</v>
       </c>
     </row>
@@ -3010,11 +3070,11 @@
         <v>90</v>
       </c>
       <c r="S22" s="2">
-        <f>(L22/44100)*170.18*100</f>
+        <f t="shared" si="14"/>
         <v>86.826530612244895</v>
       </c>
       <c r="T22">
-        <f>(M22/44100)*170.18*100</f>
+        <f t="shared" si="14"/>
         <v>57.884353741496597</v>
       </c>
       <c r="U22">
@@ -3026,23 +3086,23 @@
         <v>48.236961451247168</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.1734693877551052</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>32.115646258503403</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>61.057823129251702</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>41.763038548752832</v>
       </c>
       <c r="AF22">
-        <f>AVERAGE(Z22:AE22)</f>
+        <f t="shared" si="10"/>
         <v>34.52749433106576</v>
       </c>
     </row>
@@ -3090,11 +3150,11 @@
         <v>100</v>
       </c>
       <c r="S23" s="2">
-        <f>(L23/44100)*170.18*100</f>
+        <f t="shared" si="14"/>
         <v>86.826530612244895</v>
       </c>
       <c r="T23" s="2">
-        <f>(M23/44100)*170.18*100</f>
+        <f t="shared" si="14"/>
         <v>86.826530612244895</v>
       </c>
       <c r="U23" s="2">
@@ -3114,31 +3174,31 @@
         <v>77.179138321995467</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="4"/>
-        <v>13.173469387755105</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="4"/>
-        <v>13.173469387755105</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="8"/>
-        <v>13.173469387755105</v>
-      </c>
-      <c r="AC23">
         <f t="shared" si="9"/>
         <v>13.173469387755105</v>
       </c>
+      <c r="AA23">
+        <f t="shared" si="9"/>
+        <v>13.173469387755105</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="15"/>
+        <v>13.173469387755105</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="16"/>
+        <v>13.173469387755105</v>
+      </c>
       <c r="AD23">
+        <f t="shared" si="17"/>
+        <v>13.173469387755105</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" ref="AE23" si="19">ABS($R23-X23)</f>
+        <v>22.820861678004533</v>
+      </c>
+      <c r="AF23">
         <f t="shared" si="10"/>
-        <v>13.173469387755105</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" ref="AE23" si="12">ABS($R23-X23)</f>
-        <v>22.820861678004533</v>
-      </c>
-      <c r="AF23">
-        <f>AVERAGE(Z23:AE23)</f>
         <v>14.781368102796677</v>
       </c>
     </row>
@@ -3171,11 +3231,11 @@
         <v>110</v>
       </c>
       <c r="S24">
-        <f>(L24/44100)*170.18*100</f>
+        <f t="shared" si="14"/>
         <v>86.826530612244895</v>
       </c>
       <c r="T24" s="2">
-        <f>(M24/44100)*170.18*100</f>
+        <f t="shared" si="14"/>
         <v>96.473922902494337</v>
       </c>
       <c r="U24" s="2">
@@ -3183,19 +3243,19 @@
         <v>106.12131519274377</v>
       </c>
       <c r="Z24">
-        <f t="shared" ref="Z24" si="13">ABS($R24-S24)</f>
+        <f t="shared" ref="Z24" si="20">ABS($R24-S24)</f>
         <v>23.173469387755105</v>
       </c>
       <c r="AA24">
-        <f t="shared" ref="AA24" si="14">ABS($R24-T24)</f>
+        <f t="shared" ref="AA24" si="21">ABS($R24-T24)</f>
         <v>13.526077097505663</v>
       </c>
       <c r="AB24">
-        <f t="shared" ref="AB24" si="15">ABS($R24-U24)</f>
+        <f t="shared" ref="AB24" si="22">ABS($R24-U24)</f>
         <v>3.878684807256235</v>
       </c>
       <c r="AF24">
-        <f>AVERAGE(Z24:AE24)</f>
+        <f t="shared" si="10"/>
         <v>13.526077097505668</v>
       </c>
     </row>

--- a/Documentatie/Experimenten/Afstanden.xlsx
+++ b/Documentatie/Experimenten/Afstanden.xlsx
@@ -338,23 +338,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400"/>
-                </a:pPr>
-                <a:endParaRPr lang="nl-NL"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -399,7 +383,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -571,11 +555,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288114944"/>
-        <c:axId val="288117120"/>
+        <c:axId val="288303360"/>
+        <c:axId val="288305536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288114944"/>
+        <c:axId val="288303360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +598,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288117120"/>
+        <c:crossAx val="288305536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -622,7 +606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288117120"/>
+        <c:axId val="288305536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +646,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288114944"/>
+        <c:crossAx val="288303360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -701,10 +685,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
+      <c14:style val="111"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="8"/>
+      <c:style val="11"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -718,10 +702,10 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
-              <a:t>Geluidslengte van 300 samples</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Effect van verschillende geluidslengtes</a:t>
             </a:r>
-            <a:endParaRPr lang="nl-NL" sz="2800"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -739,14 +723,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Gemiddelde fout</c:v>
+            <c:v>Geluidslengte van 300 samples</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$R$14:$R$24</c:f>
@@ -827,6 +806,53 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>13.526077097505668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Geluidslengte van 150 samples</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$AF$2:$AF$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.471088435374149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.411848072562357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2341269841269842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1170634920634903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.978835978835976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.293367346938776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.327210884353747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.480952380952383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.692517006802721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,11 +867,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288147328"/>
-        <c:axId val="288157696"/>
+        <c:axId val="288343936"/>
+        <c:axId val="288354304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288147328"/>
+        <c:axId val="288343936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,10 +884,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL" sz="1800"/>
+                  <a:rPr lang="nl-NL"/>
                   <a:t>Werkelijke afstand (m)</a:t>
                 </a:r>
               </a:p>
@@ -874,17 +900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="288157696"/>
+        <c:crossAx val="288354304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -892,7 +908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288157696"/>
+        <c:axId val="288354304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +925,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL" sz="1800"/>
+                  <a:rPr lang="nl-NL"/>
                   <a:t>Gemiddelde fout (m)</a:t>
                 </a:r>
               </a:p>
@@ -922,17 +938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="288147328"/>
+        <c:crossAx val="288343936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -941,29 +947,6 @@
       <c:legendPos val="b"/>
       <c:legendEntry>
         <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800"/>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800"/>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
       </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
@@ -1745,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AQ57" sqref="AQ57"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U120" sqref="U120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentatie/Experimenten/Afstanden.xlsx
+++ b/Documentatie/Experimenten/Afstanden.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="16275" windowHeight="6915"/>
@@ -571,11 +571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288114944"/>
-        <c:axId val="288117120"/>
+        <c:axId val="128018432"/>
+        <c:axId val="90938688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288114944"/>
+        <c:axId val="128018432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +592,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Werkelijke afstand (m)</a:t>
+                  <a:t>Werkelijke afstand (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -614,7 +614,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288117120"/>
+        <c:crossAx val="90938688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -622,7 +622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288117120"/>
+        <c:axId val="90938688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +640,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="1800"/>
-                  <a:t>Gemiddelde fout (m)</a:t>
+                  <a:t>Gemiddelde fout (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -662,7 +662,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288114944"/>
+        <c:crossAx val="128018432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -841,11 +841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288147328"/>
-        <c:axId val="288157696"/>
+        <c:axId val="128019968"/>
+        <c:axId val="129139840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288147328"/>
+        <c:axId val="128019968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +862,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="1800"/>
-                  <a:t>Werkelijke afstand (m)</a:t>
+                  <a:t>Werkelijke afstand (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -884,7 +884,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288157696"/>
+        <c:crossAx val="129139840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -892,7 +892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288157696"/>
+        <c:axId val="129139840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +910,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="1800"/>
-                  <a:t>Gemiddelde fout (m)</a:t>
+                  <a:t>Gemiddelde fout (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -932,7 +932,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288147328"/>
+        <c:crossAx val="128019968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1745,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AQ57" sqref="AQ57"/>
     </sheetView>
   </sheetViews>
